--- a/5/compare.xlsx
+++ b/5/compare.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4386B12-A409-4576-BAE2-0F00561A8551}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,9 +19,45 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>Flex</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>OnLoad</t>
+  </si>
+  <si>
+    <t>Iteration</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Time spent(ms)</t>
+  </si>
+  <si>
+    <t>Глубина рекурсии: 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вывод : </t>
+  </si>
+  <si>
+    <t>Flex показывает себя быстрее на больее 
+глубоких уровнях рекурсии ~ на 18 %</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +65,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +103,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +170,676 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Flex</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$O$14:$O$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$N$14:$N$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1855</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3716</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16086</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34644</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>75889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3ABB-4929-BDFF-675F3933B7FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$14:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$14:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1241</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2405</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4885</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9867</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20142</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>411101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3ABB-4929-BDFF-675F3933B7FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="570883871"/>
+        <c:axId val="725998767"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="570883871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Глубина</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> рекурсии</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="725998767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="725998767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> , мс</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="570883871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1142999</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8840BF11-B7E7-49C4-85E7-FE27677C9017}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +1104,537 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="7" width="14.140625" customWidth="1"/>
+    <col min="14" max="23" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5">
+        <v>102</v>
+      </c>
+      <c r="F4" s="5">
+        <v>21</v>
+      </c>
+      <c r="G4" s="5">
+        <v>48</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>112</v>
+      </c>
+      <c r="F5" s="5">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5">
+        <v>59</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C6" s="5">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5">
+        <v>68</v>
+      </c>
+      <c r="F6" s="5">
+        <v>7</v>
+      </c>
+      <c r="G6" s="5">
+        <v>64</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="5">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5">
+        <v>89</v>
+      </c>
+      <c r="F7" s="5">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5">
+        <v>55</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="N11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="N15" s="6">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="N16" s="6">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>0</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3</v>
+      </c>
+      <c r="N17" s="6">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="N18" s="6">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7">
+        <v>5</v>
+      </c>
+      <c r="N19" s="6">
+        <v>1</v>
+      </c>
+      <c r="O19" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7">
+        <v>6</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1</v>
+      </c>
+      <c r="O20" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7">
+        <v>7</v>
+      </c>
+      <c r="N21" s="6">
+        <v>2</v>
+      </c>
+      <c r="O21" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <v>2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>8</v>
+      </c>
+      <c r="N22" s="6">
+        <v>3</v>
+      </c>
+      <c r="O22" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>9</v>
+      </c>
+      <c r="N23" s="6">
+        <v>4</v>
+      </c>
+      <c r="O23" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="6">
+        <v>6</v>
+      </c>
+      <c r="C24" s="7">
+        <v>10</v>
+      </c>
+      <c r="N24" s="6">
+        <v>7</v>
+      </c>
+      <c r="O24" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="6">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>11</v>
+      </c>
+      <c r="N25" s="6">
+        <v>13</v>
+      </c>
+      <c r="O25" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="6">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>12</v>
+      </c>
+      <c r="N26" s="6">
+        <f xml:space="preserve"> 25</f>
+        <v>25</v>
+      </c>
+      <c r="O26" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="6">
+        <v>37</v>
+      </c>
+      <c r="C27" s="7">
+        <v>13</v>
+      </c>
+      <c r="N27" s="6">
+        <f xml:space="preserve"> 47</f>
+        <v>47</v>
+      </c>
+      <c r="O27" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="6">
+        <v>71</v>
+      </c>
+      <c r="C28" s="7">
+        <v>14</v>
+      </c>
+      <c r="N28" s="6">
+        <v>114</v>
+      </c>
+      <c r="O28" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
+        <v>143</v>
+      </c>
+      <c r="C29" s="7">
+        <v>15</v>
+      </c>
+      <c r="N29" s="6">
+        <v>228</v>
+      </c>
+      <c r="O29" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="6">
+        <v>303</v>
+      </c>
+      <c r="C30" s="7">
+        <v>16</v>
+      </c>
+      <c r="N30" s="6">
+        <v>431</v>
+      </c>
+      <c r="O30" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="6">
+        <v>609</v>
+      </c>
+      <c r="C31" s="7">
+        <v>17</v>
+      </c>
+      <c r="N31" s="6">
+        <v>974</v>
+      </c>
+      <c r="O31" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="6">
+        <v>1241</v>
+      </c>
+      <c r="C32" s="7">
+        <v>18</v>
+      </c>
+      <c r="N32" s="6">
+        <v>1855</v>
+      </c>
+      <c r="O32" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="6">
+        <v>2405</v>
+      </c>
+      <c r="C33" s="7">
+        <v>19</v>
+      </c>
+      <c r="N33" s="6">
+        <f xml:space="preserve"> 3716</f>
+        <v>3716</v>
+      </c>
+      <c r="O33" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="6">
+        <v>4885</v>
+      </c>
+      <c r="C34" s="7">
+        <v>20</v>
+      </c>
+      <c r="N34" s="6">
+        <v>7901</v>
+      </c>
+      <c r="O34" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="6">
+        <v>9867</v>
+      </c>
+      <c r="C35" s="7">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="N35" s="6">
+        <v>16086</v>
+      </c>
+      <c r="O35" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="6">
+        <v>20142</v>
+      </c>
+      <c r="C36" s="7">
+        <v>22</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="N36" s="6">
+        <v>34644</v>
+      </c>
+      <c r="O36" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="6">
+        <v>411101</v>
+      </c>
+      <c r="C37" s="7">
+        <v>23</v>
+      </c>
+      <c r="H37">
+        <f>N37/B37</f>
+        <v>0.18459940501239355</v>
+      </c>
+      <c r="N37" s="6">
+        <v>75889</v>
+      </c>
+      <c r="O37" s="7">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="N11:O12"/>
+    <mergeCell ref="E35:I36"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>